--- a/quan.java/quan-config/definition-table/CardConfig - 分表1.xlsx
+++ b/quan.java/quan-config/definition-table/CardConfig - 分表1.xlsx
@@ -63,10 +63,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>常量Key</t>
   </si>
   <si>
@@ -74,66 +70,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>list:int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>set:int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>map:int:int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardType;index=normal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>type1</t>
   </si>
   <si>
@@ -155,6 +91,54 @@
   <si>
     <t>卡片6</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>CardType;index=normal</t>
+  </si>
+  <si>
+    <t>list:int</t>
+  </si>
+  <si>
+    <t>set:int</t>
+  </si>
+  <si>
+    <t>map:int:int</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1096,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,80 +1110,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -1225,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1233,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1256,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2</v>

--- a/quan.java/quan-config/definition-table/CardConfig - 分表1.xlsx
+++ b/quan.java/quan-config/definition-table/CardConfig - 分表1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quan\quan.java\quan-config\definition-table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\quan-config\definition-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>map.size&lt;10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1093,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1161,97 +1165,102 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>244</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
